--- a/biology/Histoire de la zoologie et de la botanique/Jean_Risbec/Jean_Risbec.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Risbec/Jean_Risbec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Risbec (1895-1964) est un malacologiste et un entomologiste français[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Risbec (1895-1964) est un malacologiste et un entomologiste français,.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Risbec est né le 18 août 1895 à Thorigny-sur-Oreuse dans le département de l'Yonne[4]. Il a passé son enfance en Nouvelle-Calédonie où son père, Ernest Risbec, était professeur à Nouméa[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Risbec est né le 18 août 1895 à Thorigny-sur-Oreuse dans le département de l'Yonne. Il a passé son enfance en Nouvelle-Calédonie où son père, Ernest Risbec, était professeur à Nouméa.
 Il participe à la guerre de 14-18 comme simple canonnier dans divers régiments d'artillerie lourde, de septembre 1917 à novembre 1918[réf. souhaitée].
-Il débute comme professeur de mathématiques et de sciences physiques au collège La Perouse (aujourd'hui lycée) de Nouméa en 1921[3],[5].
-Il s'intéresse aux mollusques, qu'il collecte sans équipement de plongée, et soutient sa thèse de Doctorat ès-Sciences intitulée Contribution à l’Étude des Nudibranches néo-calédoniens le 10 mars 1928 à Paris[3].
-Il retourne la même année à Nouméa en tant qu'entomologiste agricole grâce à l'intervention de Paul Vayssière. Son épouse se tue le 27 octobre 1933[réf. souhaitée], lors d'une chute de cheval dans une plantation de cocotier près de Port-Vila, au Vanuatu[3].
-En 1937, il est affecté au Soudan français et au Sénégal où il étudie la faune parasitaire des cultures, notamment les parasites des insectes ravageurs, les hyménoptères Proctotrupidae et les Chalcidoïdes. Il se remarie en 1939[3].
-Il revient en France en 1945 et prend sa retraite de l'entomologie en 1950. Il fut ensuite affecté à Londres et rentre en France en 1960[3].
-Jean Risbec décède le 18 août 1964 à Fontainebleau d’un œdème pulmonaire[3].
+Il débute comme professeur de mathématiques et de sciences physiques au collège La Perouse (aujourd'hui lycée) de Nouméa en 1921,.
+Il s'intéresse aux mollusques, qu'il collecte sans équipement de plongée, et soutient sa thèse de Doctorat ès-Sciences intitulée Contribution à l’Étude des Nudibranches néo-calédoniens le 10 mars 1928 à Paris.
+Il retourne la même année à Nouméa en tant qu'entomologiste agricole grâce à l'intervention de Paul Vayssière. Son épouse se tue le 27 octobre 1933[réf. souhaitée], lors d'une chute de cheval dans une plantation de cocotier près de Port-Vila, au Vanuatu.
+En 1937, il est affecté au Soudan français et au Sénégal où il étudie la faune parasitaire des cultures, notamment les parasites des insectes ravageurs, les hyménoptères Proctotrupidae et les Chalcidoïdes. Il se remarie en 1939.
+Il revient en France en 1945 et prend sa retraite de l'entomologie en 1950. Il fut ensuite affecté à Londres et rentre en France en 1960.
+Jean Risbec décède le 18 août 1964 à Fontainebleau d’un œdème pulmonaire.
 </t>
         </is>
       </c>
@@ -549,11 +563,48 @@
           <t>Héritage naturaliste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean Risbec s’intéressa toute sa vie aux mollusques marins, depuis sa thèse en 1928 jusqu'à son dernier travail sur le sujet en 1954, mais il a aussi été un pionnier méconnu de l’entomologie agricole. Taxonomiste avisé, il a publié sur ses observations des insectes des plantations et en particulier sur les hyménoptères parasites, notamment de l’Afrique Noire et de Madagascar[2],[3].
-Les nudibranches
-Jean Risbec est l'auteur de plusieurs genres et espèces de nudibranches selon World Register of Marine Species                               (13 octobre 2018)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Risbec s’intéressa toute sa vie aux mollusques marins, depuis sa thèse en 1928 jusqu'à son dernier travail sur le sujet en 1954, mais il a aussi été un pionnier méconnu de l’entomologie agricole. Taxonomiste avisé, il a publié sur ses observations des insectes des plantations et en particulier sur les hyménoptères parasites, notamment de l’Afrique Noire et de Madagascar,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Risbec</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Risbec</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les nudibranches</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Risbec est l'auteur de plusieurs genres et espèces de nudibranches selon World Register of Marine Species                               (13 octobre 2018) :
 Joubiniopsis Risbec, 1928
 Noumeaella Risbec, 1937
 Spahria Risbec, 1928
@@ -561,7 +612,7 @@
 Atagema spinosa (Risbec, 1928)
 Berthella caledonica (Risbec, 1928)
 Bulbaeolidia alba (Risbec, 1928)
-Cadlinella ornatissima (Risbec, 1928)[7]
+Cadlinella ornatissima (Risbec, 1928)
 Caloria guenanti (Risbec, 1928)
 Carminodoris cockerelli Risbec, 1930
 Chelidonura pallida Risbec, 1951
@@ -605,38 +656,75 @@
 Vayssierea caledonica Risbec, 1928
 Verconia decussata (Risbec, 1928)
 Verconia romeri (Risbec, 1928)
-Le genre Risbecia Odhner, 1934 dénommé en son honneur[3] a été placé en synonymie d'Hypselodoris Stimpson, 1855[8].
-Les hyménoptères
-Coffearhynchus Risbec, 1936[9]
-Coffearhynchus neocaledonicus Risbec, 1936[9]</t>
+Le genre Risbecia Odhner, 1934 dénommé en son honneur a été placé en synonymie d'Hypselodoris Stimpson, 1855.
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jean_Risbec</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Risbec</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les hyménoptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coffearhynchus Risbec, 1936
+Coffearhynchus neocaledonicus Risbec, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Risbec</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Risbec</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste partielle de publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Risbec, J. 1928. Contribution à l’étude des nudibranches Néo-Calédoniens. Faune des Colonies Françaises, 2(1): 1-328.
 Risbec, J. 1928. Impressions de Nouvelle-Calédonie. Bulletin de l’Agence Générale Coloniale, Melun, 21: 399-479.
